--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1391,6 +1391,41 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー更新実行</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultUserUpdMasta.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syainJouhouHensyu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koutusuuKakunin.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費精算確認</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1497,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,6 +1571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,16 +1788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1768,8 +1806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885825" y="2381250"/>
-          <a:ext cx="2076450" cy="990600"/>
+          <a:off x="1409700" y="3219450"/>
+          <a:ext cx="2066925" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1837,13 +1875,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -1854,7 +1892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="2381250"/>
+          <a:off x="4257675" y="2857500"/>
           <a:ext cx="1314450" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2030,15 +2068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2047,7 +2085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="4210050"/>
+          <a:off x="2838450" y="5353050"/>
           <a:ext cx="1314450" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2056,16 +2094,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2185,15 +2225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2202,8 +2242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1562100" y="2152650"/>
-          <a:ext cx="0" cy="247651"/>
+          <a:off x="2076450" y="2619375"/>
+          <a:ext cx="0" cy="619127"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2233,15 +2273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2252,8 +2292,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2790825" y="3857625"/>
-          <a:ext cx="885825" cy="352425"/>
+          <a:off x="2609850" y="4219575"/>
+          <a:ext cx="885825" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2282,14 +2322,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2302,8 +2342,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2962275" y="2124076"/>
-          <a:ext cx="1028700" cy="257174"/>
+          <a:off x="3886200" y="2124076"/>
+          <a:ext cx="1028700" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2516,16 +2556,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2571,16 +2613,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2626,16 +2670,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3225,15 +3271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3242,7 +3288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="4229100"/>
+          <a:off x="1162050" y="5353050"/>
           <a:ext cx="1314450" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3280,29 +3326,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2114550" y="3848100"/>
-          <a:ext cx="766763" cy="381000"/>
+          <a:off x="1819275" y="4200525"/>
+          <a:ext cx="809625" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3331,16 +3376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3352,8 +3397,429 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2771775" y="4562475"/>
-          <a:ext cx="247650" cy="19050"/>
+          <a:off x="2476500" y="5705475"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フローチャート: 処理 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="3381375"/>
+          <a:ext cx="1314450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー更新実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+          <a:endCxn id="31" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11039475" y="3733800"/>
+          <a:ext cx="390525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1233488</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1028700" y="4200525"/>
+          <a:ext cx="414338" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="フローチャート: 処理 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="4533900"/>
+          <a:ext cx="1495425" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>社員情報編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理者フラグの有無で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>編集できる内容が異なる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4876800" y="3562350"/>
+          <a:ext cx="0" cy="619127"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="フローチャート: 処理 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="4191000"/>
+          <a:ext cx="1314450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>交通費精算確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3190875" y="2638426"/>
+          <a:ext cx="1085850" cy="1581149"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3649,7 +4115,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3851,10 +4317,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3973,75 +4439,102 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4053,18 +4546,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B7:Q29"/>
+  <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="2.125" customWidth="1"/>
+    <col min="18" max="19" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
@@ -4083,8 +4577,10 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>111</v>
       </c>
@@ -4103,8 +4599,10 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>113</v>
       </c>
@@ -4123,8 +4621,10 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>112</v>
       </c>
@@ -4143,8 +4643,10 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>119</v>
       </c>
@@ -4163,8 +4665,10 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -4181,8 +4685,10 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4199,8 +4705,10 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4217,8 +4725,10 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -4235,8 +4745,10 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4253,8 +4765,10 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4271,8 +4785,10 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4289,8 +4805,10 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4307,8 +4825,10 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4325,8 +4845,10 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4343,8 +4865,10 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4361,8 +4885,10 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4379,8 +4905,10 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -4397,8 +4925,10 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4415,8 +4945,10 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -4433,8 +4965,10 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4451,8 +4985,10 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -4469,8 +5005,10 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4487,6 +5025,8 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -82,25 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員詳細に記載する詳細内容</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>koutsuu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1426,6 +1407,33 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ktimestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費精算の各時刻と状態</t>
+    <rPh sb="0" eb="5">
+      <t>コウツウヒセイサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カクジコク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルシートに記載する内容</t>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1566,14 +1574,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4125,84 +4133,84 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4226,82 +4234,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4334,10 +4342,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -4345,194 +4353,194 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -4548,19 +4556,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="2.125" customWidth="1"/>
-    <col min="18" max="19" width="9" style="13"/>
+    <col min="18" max="19" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4582,7 +4590,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4604,7 +4612,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4626,7 +4634,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4648,7 +4656,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5049,7 +5057,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5061,9 +5069,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5107,13 +5115,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
@@ -5124,18 +5132,29 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5155,7 +5174,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5180,91 +5199,91 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -5288,68 +5307,68 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -2735,16 +2735,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3171,10 +3173,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3184,7 +3186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7334250" y="238125"/>
-          <a:ext cx="2076450" cy="971550"/>
+          <a:ext cx="1895475" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3462,16 +3464,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4556,7 +4560,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5071,7 +5075,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1013,13 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAOクラスの共通化</t>
-    <rPh sb="7" eb="10">
-      <t>キョウツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SpringFrameworkの導入</t>
     <rPh sb="16" eb="18">
       <t>ドウニュウ</t>
@@ -1031,16 +1024,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部JAR必要。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mavenプロジェクト化</t>
     <rPh sb="11" eb="12">
       <t>カ</t>
@@ -1059,29 +1042,6 @@
   </si>
   <si>
     <t>Javaネイティブでやっているとどうしても</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SQLのファイル化</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル変更などの際に工数減らしたい</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヘ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4173,10 +4133,10 @@
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4186,7 +4146,7 @@
     </row>
     <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
@@ -4293,7 +4253,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
@@ -4308,12 +4268,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4411,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -4469,10 +4429,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -4499,16 +4459,16 @@
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -4532,10 +4492,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -4594,7 +4554,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4616,7 +4576,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4638,7 +4598,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4660,7 +4620,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5061,7 +5021,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5119,13 +5079,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
@@ -5136,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -5152,13 +5112,13 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5138,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5219,13 +5179,13 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -5300,7 +5260,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5311,7 +5271,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
@@ -5327,12 +5287,12 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
@@ -5340,38 +5300,22 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C8" t="s">
         <v>96</v>
       </c>
     </row>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1354,10 +1354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>koutusuuKakunin.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>交通費精算確認</t>
     <rPh sb="0" eb="3">
       <t>コウツウヒ</t>
@@ -1395,6 +1391,27 @@
     <rPh sb="11" eb="13">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koutsuuKakunin.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費差戻要求</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サシモドシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koutsuuSashimodoshi.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3818,6 +3835,114 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート: 処理 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="4191000"/>
+          <a:ext cx="1314450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>交通費差戻要求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="1"/>
+          <a:endCxn id="59" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5572125" y="4543425"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4289,11 +4414,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4492,21 +4617,30 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4520,7 +4654,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5035,7 +5171,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5096,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -5112,13 +5248,13 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1020,10 +1020,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Caesarでもいいけど…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Mavenプロジェクト化</t>
     <rPh sb="11" eb="12">
       <t>カ</t>
@@ -1412,6 +1408,63 @@
   </si>
   <si>
     <t>koutsuuSashimodoshi.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費修正</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koutsuuSyuusei.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報編集</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mailaddress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDごとのメールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算代入とインクリメントは例外とする</t>
+    <rPh sb="0" eb="4">
+      <t>カサンダイニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1462,7 +1515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1511,13 +1564,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,6 +1623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3146,14 +3213,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3162,8 +3229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="238125"/>
-          <a:ext cx="1895475" cy="571500"/>
+          <a:off x="7334250" y="238124"/>
+          <a:ext cx="2514599" cy="876301"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3193,6 +3260,26 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>この色の画面についてはメッセージ表示あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※msg.jsp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>include</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3570,16 +3657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3588,7 +3675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="4533900"/>
+          <a:off x="257175" y="4486275"/>
           <a:ext cx="1495425" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3917,6 +4004,111 @@
         <a:xfrm flipH="1">
           <a:off x="5572125" y="4543425"/>
           <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="フローチャート: 処理 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="5162550"/>
+          <a:ext cx="1314450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>交通費修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4895850" y="4867276"/>
+          <a:ext cx="9525" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4258,10 +4450,10 @@
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4271,7 +4463,7 @@
     </row>
     <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
@@ -4378,7 +4570,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
@@ -4393,12 +4585,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4414,233 +4606,315 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="56.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="56.75" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="E25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4654,9 +4928,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4690,7 +4962,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4712,7 +4984,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4734,7 +5006,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4756,7 +5028,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5157,7 +5429,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5169,9 +5441,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5214,47 +5486,58 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
+      <c r="B5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5274,7 +5557,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5315,13 +5598,15 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -5407,7 +5692,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
@@ -5423,15 +5708,15 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -5439,12 +5724,12 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4928,7 +4928,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -761,10 +761,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chgMailMasta.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>syainJouhou.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1465,6 +1461,18 @@
     <rPh sb="13" eb="15">
       <t>レイガイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mailUpd.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1618,14 +1626,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2583,14 +2591,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>223158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>213632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2599,8 +2607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725025" y="2495550"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="9667875" y="1692729"/>
+          <a:ext cx="1303564" cy="725260"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2640,14 +2648,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2656,8 +2664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725025" y="3381375"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="9667875" y="2605768"/>
+          <a:ext cx="1303564" cy="725261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2697,14 +2705,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2713,8 +2721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725025" y="4352925"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="9667875" y="3604532"/>
+          <a:ext cx="1303564" cy="725261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2753,15 +2761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>159202</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2770,8 +2778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="6048375"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="9388929" y="5769429"/>
+          <a:ext cx="1465487" cy="725261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2800,7 +2808,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メールアドレス変更</a:t>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マスタ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2861,27 +2877,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8810625" y="2847975"/>
-          <a:ext cx="914400" cy="323850"/>
+          <a:off x="8777968" y="2055359"/>
+          <a:ext cx="889907" cy="1230086"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2911,15 +2928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>91169</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2929,59 +2946,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8810625" y="3133725"/>
-          <a:ext cx="914400" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8810625" y="3133726"/>
-          <a:ext cx="914400" cy="2419349"/>
+        <a:xfrm flipH="1">
+          <a:off x="8745312" y="2968399"/>
+          <a:ext cx="922563" cy="349023"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3013,13 +2980,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>101374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8846</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3031,58 +2998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8829675" y="3200400"/>
-          <a:ext cx="914400" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="30" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8820150" y="2847975"/>
-          <a:ext cx="904875" cy="1285875"/>
+          <a:off x="8777968" y="3285445"/>
+          <a:ext cx="610961" cy="2846615"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3291,14 +3208,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3307,8 +3224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725025" y="5200650"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="9667875" y="4472668"/>
+          <a:ext cx="1303564" cy="725261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3503,14 +3420,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3519,8 +3436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11430000" y="3381375"/>
-          <a:ext cx="1314450" cy="704850"/>
+          <a:off x="11361964" y="2605768"/>
+          <a:ext cx="1303565" cy="725261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3560,14 +3477,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3579,7 +3496,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11039475" y="3733800"/>
+          <a:off x="10971439" y="2964997"/>
           <a:ext cx="390525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3772,25 +3689,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4876800" y="3562350"/>
-          <a:ext cx="0" cy="619127"/>
+          <a:off x="4895850" y="3657600"/>
+          <a:ext cx="0" cy="649061"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4109,6 +4029,163 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4895850" y="4867276"/>
           <a:ext cx="9525" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366032</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート: 処理 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11061246" y="5796643"/>
+          <a:ext cx="1498148" cy="693964"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153764</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366032</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10848978" y="6143625"/>
+          <a:ext cx="212268" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>664032</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4895850" y="3694339"/>
+          <a:ext cx="1700896" cy="612322"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4404,7 +4481,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4450,10 +4527,10 @@
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4463,7 +4540,7 @@
     </row>
     <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
@@ -4515,10 +4592,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -4570,7 +4647,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
@@ -4585,12 +4662,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4606,11 +4683,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4624,7 +4701,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -4765,10 +4842,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -4789,10 +4866,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -4801,10 +4878,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -4813,10 +4890,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -4825,10 +4902,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -4837,10 +4914,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -4849,10 +4926,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -4861,10 +4938,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -4873,10 +4950,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -4885,10 +4962,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -4897,10 +4974,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -4909,12 +4986,24 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4928,7 +5017,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4940,7 +5029,7 @@
   <sheetData>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4962,7 +5051,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4984,7 +5073,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5006,7 +5095,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -5028,7 +5117,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5429,7 +5518,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5486,25 +5575,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -5515,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -5531,13 +5620,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5646,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5582,93 +5671,93 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -5692,52 +5781,52 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -2816,7 +2816,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マスタ</a:t>
+            <a:t>一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5017,7 +5017,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -335,68 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>諸情報入力後、指定したアドレスにメールを自動送信、管理者が承認した場合、返答メールを自動送信できること</t>
-    <rPh sb="0" eb="3">
-      <t>ショジョウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ジドウソウシン</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘントウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザ上で編集が可能なこと。PDF形式（仮）での出力が可能なこと</t>
-    <rPh sb="4" eb="5">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スキルシート編集機能</t>
     <rPh sb="6" eb="8">
       <t>ヘンシュウ</t>
@@ -430,34 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>交通費精算の要求先メールアドレスの登録・更新・削除が可能なこと</t>
-    <rPh sb="0" eb="3">
-      <t>コウツウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報の管理、社員各自によるスキルシートの編集、交通費の精算要求を行うことができるWebブラウザ上で動作するアプリケーション</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -696,31 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>したがってフレームワークや外部APIの導入は可能な限り控える（JDBCなど必要最小限のものは可能とする）</t>
-    <rPh sb="13" eb="15">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="37" eb="42">
-      <t>ヒツヨウサイショウゲン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,10 +647,6 @@
   </si>
   <si>
     <t>syainJouhou.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chgSkillSheet.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1212,10 +1093,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shousai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未作成</t>
     <rPh sb="0" eb="3">
       <t>ミサクセイ</t>
@@ -1260,13 +1137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未決</t>
-    <rPh sb="0" eb="2">
-      <t>ミケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スキルシート閲覧</t>
     <rPh sb="6" eb="8">
       <t>エツラン</t>
@@ -1274,44 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>viewSkillSheet.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列を代入する際は可能な限り定数とすること。必要に応じて定数クラス（Const.java）を利用すること</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウスウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Javaファイル内での文字列の連結にはStringBuilderを用いること</t>
     <rPh sb="8" eb="9">
       <t>ナイ</t>
@@ -1473,6 +1305,271 @@
   </si>
   <si>
     <t>mailUpd.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skillsheet.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skillsheetHensyuu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ブラウザ上で編集が可能なこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDF形式（仮）での出力が可能なこと</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルシートのPDF出力</t>
+    <rPh sb="10" eb="12">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料の範囲だと複数のフレームワークの導入が必要なため見送り</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列を代入する際は可能な限り定数とすること。必要に応じて定数クラス（constansパッケージ配下のクラス）を利用すること</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLファイルについては可読性の観点から定数化しないこととする</t>
+    <rPh sb="12" eb="15">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usershousai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID 名前 性別 年齢 入社年月日 年次 出身地 住所　の閲覧および全員の編集が可能とすること</t>
+    <rPh sb="31" eb="33">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前 性別 年次 出身地の閲覧が可能なこと。自分の情報を編集できること</t>
+    <rPh sb="13" eb="15">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの登録・更新・削除が可能なこと</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求者が諸情報を入力後、管理者に向けて承認依頼を送り管理者が差戻・承認・振込とそれぞれ処理を行う。</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サシモドシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の請求状態を確認、また差戻の場合修正が可能なこと</t>
+  </si>
+  <si>
+    <t>フレームワークや外部APIの導入は可能な限り控える（JDBCなど必要最小限のものは可能とする）</t>
+    <rPh sb="8" eb="10">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1480,7 +1577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,8 +1593,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,12 +1613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,9 +1720,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1731,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4479,9 +4579,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4489,22 +4589,22 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -4512,7 +4612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4520,55 +4620,70 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="14" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>36</v>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4592,10 +4707,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -4615,10 +4730,10 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -4647,27 +4762,27 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4686,8 +4801,8 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4701,13 +4816,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
@@ -4718,10 +4833,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -4730,10 +4845,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -4742,13 +4857,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
@@ -4756,13 +4871,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
@@ -4770,10 +4885,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -4782,10 +4897,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -4794,10 +4909,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -4806,10 +4921,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -4818,10 +4933,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -4830,10 +4945,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -4842,10 +4957,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -4854,10 +4969,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -4866,10 +4981,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -4878,10 +4993,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -4890,10 +5005,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -4902,10 +5017,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -4914,10 +5029,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -4926,10 +5041,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -4938,10 +5053,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -4950,10 +5065,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -4962,10 +5077,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -4974,10 +5089,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -4986,10 +5101,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -4998,10 +5113,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -5017,485 +5132,485 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B7:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="2.125" customWidth="1"/>
-    <col min="18" max="19" width="9" style="11"/>
+    <col min="18" max="19" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5518,7 +5633,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +5652,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5575,25 +5690,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>139</v>
+      <c r="B5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -5604,7 +5719,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -5620,13 +5735,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5646,7 +5761,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5665,101 +5780,103 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="93.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5770,7 +5887,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5781,52 +5898,60 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -508,13 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード更新</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー一覧</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -579,13 +572,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス変更</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1569,6 +1555,23 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス更新</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード登録更新</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1726,14 +1729,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4581,7 +4584,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4590,7 +4593,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4600,7 +4603,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4621,21 +4624,21 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -4643,36 +4646,36 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4683,7 +4686,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4707,10 +4710,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -4762,27 +4765,27 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4803,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4816,7 +4819,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -4836,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -4845,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -4860,7 +4863,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>41</v>
@@ -4874,7 +4877,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>43</v>
@@ -4900,7 +4903,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -4912,7 +4915,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -4921,10 +4924,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -4933,10 +4936,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -4945,10 +4948,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -4957,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -4969,10 +4972,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -4981,10 +4984,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -4993,10 +4996,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -5005,10 +5008,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -5017,10 +5020,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -5029,10 +5032,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -5041,10 +5044,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -5053,10 +5056,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -5065,10 +5068,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -5077,10 +5080,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -5089,10 +5092,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -5101,10 +5104,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -5113,10 +5116,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -5144,7 +5147,7 @@
   <sheetData>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -5166,7 +5169,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5210,7 +5213,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -5633,7 +5636,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5691,24 +5694,24 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -5719,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -5735,13 +5738,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5761,7 +5764,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5786,95 +5789,95 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -5898,60 +5901,60 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="システム要件" sheetId="1" r:id="rId1"/>
@@ -4584,7 +4584,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4803,7 +4803,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
+++ b/etc/ツール・設計書/TDSL社員管理アプリ（仮）_設計書.xlsx
@@ -4315,6 +4315,107 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351064</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8777968" y="2993572"/>
+          <a:ext cx="907596" cy="1233487"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="1"/>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8777968" y="2055359"/>
+          <a:ext cx="889907" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
